--- a/opex_manifest_generator/samples/opex_manifest_generator_AutoClass.xlsx
+++ b/opex_manifest_generator/samples/opex_manifest_generator_AutoClass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilever.sharepoint.com/teams/UARMTeamsite/Archive/Digital Preservation/github/opex_manifest_generator/opex_manifest_generator/samples/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilever.sharepoint.com/teams/UARMTeamsite/Archive/Digital Preservation/github/opex_manifest_generator/opex_manifest_generator/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_7A0BEE54E186421460EB1697995C82CA8D262900" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF42D84-92A5-43A1-AD38-4E5C91269FDD}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_7A0BEE54E186421460EB1697995C82CA8D262900" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{844D0735-499D-47B5-9117-735D90700856}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-22320" yWindow="708" windowWidth="19152" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -796,8 +796,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1104,13 +1104,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="44.5546875" customWidth="1"/>
+    <col min="3" max="3" width="107.21875" customWidth="1"/>
     <col min="15" max="15" width="20.109375" customWidth="1"/>
     <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="17" max="17" width="24.109375" customWidth="1"/>
@@ -3525,15 +3525,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -3583,7 +3574,35 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="823e09ae-6c6c-40a2-8039-1299805fd3f9">UA6QMR4SPVAX-848254796-105479</_dlc_DocId>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="292d0dc2-e599-4ea9-b5ef-33bfd71295c7" xsi:nil="true"/>
+    <Document_x0020_Type0 xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e"/>
+    <Active xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e" xsi:nil="true"/>
+    <Document_x0020_Type xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e"/>
+    <_dlc_DocIdUrl xmlns="823e09ae-6c6c-40a2-8039-1299805fd3f9">
+      <Url>https://unilever.sharepoint.com/teams/UARMTeamsite/_layouts/15/DocIdRedir.aspx?ID=UA6QMR4SPVAX-848254796-105479</Url>
+      <Description>UA6QMR4SPVAX-848254796-105479</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF82376C331B141AAAA243AEF972673" ma:contentTypeVersion="61" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c2c9bfbe89c50bcaaea46d9f8aed6013">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="823e09ae-6c6c-40a2-8039-1299805fd3f9" xmlns:ns3="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e" xmlns:ns4="292d0dc2-e599-4ea9-b5ef-33bfd71295c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0aa23a0128200e1271779130a48dce7a" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="823e09ae-6c6c-40a2-8039-1299805fd3f9"/>
@@ -3949,26 +3968,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="823e09ae-6c6c-40a2-8039-1299805fd3f9">UA6QMR4SPVAX-848254796-105479</_dlc_DocId>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="292d0dc2-e599-4ea9-b5ef-33bfd71295c7" xsi:nil="true"/>
-    <Document_x0020_Type0 xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e"/>
-    <Active xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e" xsi:nil="true"/>
-    <Document_x0020_Type xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e"/>
-    <_dlc_DocIdUrl xmlns="823e09ae-6c6c-40a2-8039-1299805fd3f9">
-      <Url>https://unilever.sharepoint.com/teams/UARMTeamsite/_layouts/15/DocIdRedir.aspx?ID=UA6QMR4SPVAX-848254796-105479</Url>
-      <Description>UA6QMR4SPVAX-848254796-105479</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7A90DD-0DD0-4563-A325-8ECD6B7B5138}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A25DEC5-EB0A-4430-ADD0-A3412B3D2403}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3976,15 +3984,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7A90DD-0DD0-4563-A325-8ECD6B7B5138}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{388ABF04-CCC1-42BF-971A-22A60F406BEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="823e09ae-6c6c-40a2-8039-1299805fd3f9"/>
+    <ds:schemaRef ds:uri="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e"/>
+    <ds:schemaRef ds:uri="292d0dc2-e599-4ea9-b5ef-33bfd71295c7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14A73C4-EAF9-44CF-A79F-3B9279FF700E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4002,8 +4014,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{388ABF04-CCC1-42BF-971A-22A60F406BEB}"/>
 </file>